--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -25,6 +25,7 @@
     <definedName function="false" hidden="false" name="WorkweekHours" vbProcedure="false">'Time Sheet'!$B$6</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -108,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">Card activation, ROS tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.08.2018</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -198,16 +202,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="D\-MMM\-YY;@"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;\-#,##0.00"/>
     <numFmt numFmtId="168" formatCode="DD\.MM\.YY"/>
     <numFmt numFmtId="169" formatCode="H:MM:SS;@"/>
-    <numFmt numFmtId="170" formatCode="DD\.MM\.YYYY"/>
-    <numFmt numFmtId="171" formatCode="0"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="171" formatCode="DD\.MM\.YYYY"/>
+    <numFmt numFmtId="172" formatCode="0"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -330,7 +335,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,7 +400,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -407,11 +416,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -419,19 +428,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,23 +444,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -463,7 +460,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -471,7 +468,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -479,31 +480,43 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="173" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -511,19 +524,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -772,10 +773,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I9"/>
+  <dimension ref="B1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -938,6 +939,14 @@
         <v>19</v>
       </c>
       <c r="I9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>0.427083333333333</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="25">
@@ -1071,37 +1080,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="21.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="19" t="s">
         <v>23</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1188,35 +1197,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="21" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="19.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="22" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1258,53 +1267,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="127"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="47.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="21" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="127"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="47.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="22" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="3" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="21" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="28" t="s">
+    <row r="4" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="21" t="s">
+      <c r="C4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="21" t="s">
+    </row>
+    <row r="5" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="7" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1475,7 +1484,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="http://wiki.ros.org/ROS/Tutorials"/>
+    <hyperlink ref="C7" r:id="rId1" display="Tutorial on ROS http://wiki.ros.org/ROS/Tutorials until 7."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1503,200 +1512,200 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="30" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="30" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="21" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="27.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="28" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="29" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="29" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="22" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+        <v>37</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>44</v>
       </c>
+      <c r="J3" s="33" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="H5" s="38"/>
-      <c r="J5" s="30"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="H5" s="37"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="H6" s="38"/>
-      <c r="J6" s="30"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="H6" s="37"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="H7" s="38"/>
-      <c r="J7" s="30"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="H7" s="37"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="H8" s="38"/>
-      <c r="J8" s="30"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="H8" s="37"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="30"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="H10" s="38"/>
-      <c r="J10" s="30"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="H10" s="37"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="H11" s="38"/>
-      <c r="J11" s="30"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="H11" s="37"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="H12" s="38"/>
-      <c r="J12" s="30"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="H12" s="37"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="H13" s="38"/>
-      <c r="J13" s="30"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="H13" s="37"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="H14" s="38"/>
-      <c r="J14" s="30"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="H14" s="37"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="30"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="30"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="46"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="30"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="46"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="30"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="21"/>
-      <c r="F19" s="29"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="30"/>
+      <c r="C19" s="22"/>
+      <c r="F19" s="28"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="38"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="30"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="38"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="30"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1741,54 +1750,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="26.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="28.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="8.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="30" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="30" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="21" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="26.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="28.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="8.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="28" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="29" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="29" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="22" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+        <v>46</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="F3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="H3" s="33" t="s">
         <v>44</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1836,33 +1845,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="65.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="8.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="30" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="30" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="21" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="31.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="65.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="8.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="28" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="29" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="29" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="22" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="23"/>
-    </row>
-    <row r="2" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -26,6 +26,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -112,6 +114,15 @@
   </si>
   <si>
     <t xml:space="preserve">15.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading one-shot learning paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meeting</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -773,10 +784,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I10"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -853,11 +864,11 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>11.25</v>
+        <v>24.5</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>11.25</v>
+        <v>24.5</v>
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
@@ -947,18 +958,58 @@
       <c r="C10" s="16" t="n">
         <v>0.427083333333333</v>
       </c>
+      <c r="D10" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F10" s="16" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>6.00000000000001</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="16" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="F11" s="16" t="n">
+        <v>0.760416666666667</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>7.25000000000001</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G11" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Title of this worksheet is in this cell.  Enter Employee and Manager details in cells below" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" prompt="Use this worksheet to track hours worked in a work week. Enter Date and Times in TimeSheet table. Total Hours, Regular Hours and Overtime Hours are automatically calculated" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Title of this worksheet is in this cell.  Enter Employee and Manager details in cells below" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1087,28 +1138,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" s="21"/>
     </row>
@@ -1208,7 +1259,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1219,13 +1270,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1277,7 +1328,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1288,7 +1339,7 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1296,24 +1347,24 @@
     </row>
     <row r="4" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1526,7 +1577,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1539,31 +1590,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,7 +1815,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1776,28 +1827,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1859,7 +1910,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="24"/>
     </row>
@@ -1868,10 +1919,10 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,6 +28,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -60,13 +61,13 @@
     <t xml:space="preserve">Hannes Thielke</t>
   </si>
   <si>
-    <t xml:space="preserve">ht18905@my.bristol.ac.uk</t>
+    <t xml:space="preserve">hannes.thielke@ntu.ac.uk</t>
   </si>
   <si>
     <t xml:space="preserve">Manager Details:</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Thomas Gorochowski</t>
+    <t xml:space="preserve">Dr. Georgina Cosma</t>
   </si>
   <si>
     <t xml:space="preserve">Total Work 
@@ -125,6 +126,15 @@
     <t xml:space="preserve">meeting</t>
   </si>
   <si>
+    <t xml:space="preserve">17.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reading zero-shot imitation learning paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.08.2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">TODO</t>
   </si>
   <si>
@@ -140,7 +150,13 @@
     <t xml:space="preserve">ROS Tutorial</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Learning Tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literature Review</t>
   </si>
   <si>
     <t xml:space="preserve">Project Plan</t>
@@ -784,10 +800,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I11"/>
+  <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -838,10 +854,10 @@
     </row>
     <row r="4" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="n">
-        <v>43206</v>
+        <v>43325</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>43294</v>
+        <v>43373</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -864,11 +880,11 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>24.5</v>
+        <v>30.75</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>24.5</v>
+        <v>30.75</v>
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
@@ -999,9 +1015,45 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <v>0.572916666666667</v>
+      </c>
+      <c r="F12" s="16" t="n">
+        <v>0.729166666666667</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>6.25</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="16" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G11" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G13" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1102,6 +1154,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="hannes.thielke@ntu.ac.uk"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.511805555555555" footer="0.3"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1110,7 +1165,7 @@
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1120,10 +1175,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:D5"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1138,33 +1193,47 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1259,7 +1328,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1270,13 +1339,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1310,10 +1379,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H8"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1328,7 +1397,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1339,7 +1408,7 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1347,28 +1416,32 @@
     </row>
     <row r="4" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1577,7 +1650,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1590,31 +1663,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,7 +1888,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1827,28 +1900,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1910,7 +1983,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C1" s="24"/>
     </row>
@@ -1919,10 +1992,10 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -29,6 +29,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -135,6 +136,9 @@
     <t xml:space="preserve">20.08.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">finishing first draft on literature review; ROS tutorial until 10</t>
+  </si>
+  <si>
     <t xml:space="preserve">TODO</t>
   </si>
   <si>
@@ -187,6 +191,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tutorial on ROS http://wiki.ros.org/ROS/Tutorials until 7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished draft of literature review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ros Tutorial until 10</t>
   </si>
   <si>
     <t xml:space="preserve">Ordered</t>
@@ -803,7 +813,7 @@
   <dimension ref="B1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -880,15 +890,15 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>30.75</v>
+        <v>37.5</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>30.75</v>
+        <v>35</v>
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>0</v>
+        <v>2.50000000000001</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1046,9 +1056,21 @@
       <c r="C13" s="16" t="n">
         <v>0.385416666666667</v>
       </c>
+      <c r="D13" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E13" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F13" s="16" t="n">
+        <v>0.708333333333333</v>
+      </c>
       <c r="G13" s="15" t="n">
         <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>6.74999999999999</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1193,45 +1215,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1328,7 +1350,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1339,13 +1361,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1379,10 +1401,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H10"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1397,7 +1419,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1408,7 +1430,7 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1416,33 +1438,40 @@
     </row>
     <row r="4" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1650,7 +1679,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1663,31 +1692,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,7 +1917,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1900,28 +1929,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1983,7 +2012,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="24"/>
     </row>
@@ -1992,10 +2021,10 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,6 +30,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -136,7 +138,7 @@
     <t xml:space="preserve">20.08.2018</t>
   </si>
   <si>
-    <t xml:space="preserve">finishing first draft on literature review; ROS tutorial until 10</t>
+    <t xml:space="preserve">finishing first draft on literature review; ROS tutorial until 10, installing required software for zero-shot imitation learning on virtual machine</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -197,6 +199,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ros Tutorial until 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed all requirements for zero-shot imitation learning as described here: https://github.com/pathak22/zeroshot-imitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“make” fails → cublas_v2.h: No such file or directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tried to install CUDA Toolkit from https://developer.nvidia.com/cuda-downloads?target_os=Linux&amp;target_arch=x86_64&amp;target_distro=Ubuntu&amp;target_version=1710&amp;target_type=runfilelocal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disk space is too small → “Need 6836686400 bytes”</t>
   </si>
   <si>
     <t xml:space="preserve">Ordered</t>
@@ -812,7 +826,7 @@
   </sheetPr>
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -890,7 +904,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>37.5</v>
+        <v>37.75</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -898,7 +912,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>2.50000000000001</v>
+        <v>2.75000000000003</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1063,11 +1077,11 @@
         <v>0.552083333333333</v>
       </c>
       <c r="F13" s="16" t="n">
-        <v>0.708333333333333</v>
+        <v>0.71875</v>
       </c>
       <c r="G13" s="15" t="n">
         <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>6.74999999999999</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>27</v>
@@ -1401,10 +1415,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1472,10 +1486,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1638,6 +1668,8 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="Tutorial on ROS http://wiki.ros.org/ROS/Tutorials until 7."/>
+    <hyperlink ref="C11" r:id="rId2" display="Installed all requirements for zero-shot imitation learning as described here: https://github.com/pathak22/zeroshot-imitation"/>
+    <hyperlink ref="C13" r:id="rId3" display="tried to install CUDA Toolkit from https://developer.nvidia.com/cuda-downloads?target_os=Linux&amp;target_arch=x86_64&amp;target_distro=Ubuntu&amp;target_version=1710&amp;target_type=runfilelocal"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1647,7 +1679,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1679,7 +1711,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1695,28 +1727,28 @@
         <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,7 +1949,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1929,28 +1961,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2012,7 +2044,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" s="24"/>
     </row>
@@ -2024,7 +2056,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,6 +32,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -139,6 +140,12 @@
   </si>
   <si>
     <t xml:space="preserve">finishing first draft on literature review; ROS tutorial until 10, installing required software for zero-shot imitation learning on virtual machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CourseRa course on Machine Learning continued</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -265,7 +272,7 @@
     <numFmt numFmtId="172" formatCode="0"/>
     <numFmt numFmtId="173" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -326,6 +333,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF273645"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -386,7 +399,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -499,6 +512,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,31 +556,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -571,7 +588,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -824,21 +841,21 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="88.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.83"/>
@@ -904,7 +921,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>37.75</v>
+        <v>45.25</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -912,7 +929,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>2.75000000000003</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1087,9 +1104,33 @@
         <v>27</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="16" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="D14" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E14" s="16" t="n">
+        <v>0.572916666666667</v>
+      </c>
+      <c r="F14" s="16" t="n">
+        <v>0.729166666666667</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G13" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G14" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1223,51 +1264,51 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1356,15 +1397,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="28.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="19.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="22" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1375,13 +1416,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1415,10 +1456,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1433,7 +1474,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1444,7 +1485,7 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1452,24 +1493,24 @@
     </row>
     <row r="4" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1478,37 +1519,48 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1670,6 +1722,7 @@
     <hyperlink ref="C7" r:id="rId1" display="Tutorial on ROS http://wiki.ros.org/ROS/Tutorials until 7."/>
     <hyperlink ref="C11" r:id="rId2" display="Installed all requirements for zero-shot imitation learning as described here: https://github.com/pathak22/zeroshot-imitation"/>
     <hyperlink ref="C13" r:id="rId3" display="tried to install CUDA Toolkit from https://developer.nvidia.com/cuda-downloads?target_os=Linux&amp;target_arch=x86_64&amp;target_distro=Ubuntu&amp;target_version=1710&amp;target_type=runfilelocal"/>
+    <hyperlink ref="C16" r:id="rId4" display="https://github.com/pathak22/zeroshot-imitation"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1679,7 +1732,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1700,55 +1753,55 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="28" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="29" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="29" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="30" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="30" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="22" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="H3" s="34" t="s">
         <v>60</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,141 +1809,141 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="H5" s="37"/>
-      <c r="J5" s="29"/>
+      <c r="H5" s="38"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="H6" s="37"/>
-      <c r="J6" s="29"/>
+      <c r="H6" s="38"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="H7" s="37"/>
-      <c r="J7" s="29"/>
+      <c r="H7" s="38"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
-      <c r="H8" s="37"/>
-      <c r="J8" s="29"/>
+      <c r="H8" s="38"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="29"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
-      <c r="H10" s="37"/>
-      <c r="J10" s="29"/>
+      <c r="H10" s="38"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
-      <c r="H11" s="37"/>
-      <c r="J11" s="29"/>
+      <c r="H11" s="38"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
-      <c r="H12" s="37"/>
-      <c r="J12" s="29"/>
+      <c r="H12" s="38"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="H13" s="37"/>
-      <c r="J13" s="29"/>
+      <c r="H13" s="38"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="H14" s="37"/>
-      <c r="J14" s="29"/>
+      <c r="H14" s="38"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="29"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="29"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="45"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="29"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="45"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="29"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="22"/>
-      <c r="F19" s="28"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="37"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="29"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="37"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="29"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1938,51 +1991,51 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="26.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="28.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="8.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="28" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="29" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="29" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="30" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="30" width="12.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="22" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="G3" s="34" t="s">
         <v>60</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2032,19 +2085,19 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="65.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="65.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="8.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="28" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="29" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="29" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="30" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="30" width="12.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="22" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="24"/>
     </row>
@@ -2053,10 +2106,10 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,6 +33,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -148,6 +151,9 @@
     <t xml:space="preserve">CourseRa course on Machine Learning continued</t>
   </si>
   <si>
+    <t xml:space="preserve">22.08.2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">TODO</t>
   </si>
   <si>
@@ -218,6 +224,18 @@
   </si>
   <si>
     <t xml:space="preserve">Disk space is too small → “Need 6836686400 bytes”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed OpenCV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial on “Image Difference with OpenCV and Python” (https://www.pyimagesearch.com/2017/06/19/image-difference-with-opencv-and-python/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial on “OpenCV shape detection” (https://www.pyimagesearch.com/2016/02/08/opencv-shape-detection/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playing around with the Shape detection algorithm: own shapes and changing the parameters</t>
   </si>
   <si>
     <t xml:space="preserve">Ordered</t>
@@ -272,7 +290,7 @@
     <numFmt numFmtId="172" formatCode="0"/>
     <numFmt numFmtId="173" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -333,12 +351,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF273645"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -512,7 +524,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,31 +568,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -588,7 +600,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -841,17 +853,17 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.49"/>
@@ -921,7 +933,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>45.25</v>
+        <v>52.75</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -929,7 +941,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>10.25</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1128,9 +1140,30 @@
         <v>29</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="16" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D15" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E15" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F15" s="16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>7.50000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G15" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1270,45 +1303,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1398,14 +1431,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="13.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="19.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="22" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1416,13 +1449,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1456,10 +1489,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1474,7 +1507,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1485,7 +1518,7 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1493,24 +1526,24 @@
     </row>
     <row r="4" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1519,32 +1552,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1553,7 +1586,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,11 +1595,34 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1722,7 +1778,9 @@
     <hyperlink ref="C7" r:id="rId1" display="Tutorial on ROS http://wiki.ros.org/ROS/Tutorials until 7."/>
     <hyperlink ref="C11" r:id="rId2" display="Installed all requirements for zero-shot imitation learning as described here: https://github.com/pathak22/zeroshot-imitation"/>
     <hyperlink ref="C13" r:id="rId3" display="tried to install CUDA Toolkit from https://developer.nvidia.com/cuda-downloads?target_os=Linux&amp;target_arch=x86_64&amp;target_distro=Ubuntu&amp;target_version=1710&amp;target_type=runfilelocal"/>
-    <hyperlink ref="C16" r:id="rId4" display="https://github.com/pathak22/zeroshot-imitation"/>
+    <hyperlink ref="C16" r:id="rId4" display="Installed all requirements for zero-shot imitation learning as described here: https://github.com/pathak22/zeroshot-imitation"/>
+    <hyperlink ref="C21" r:id="rId5" display="Tutorial on “Image Difference with OpenCV and Python” (https://www.pyimagesearch.com/2017/06/19/image-difference-with-opencv-and-python/)"/>
+    <hyperlink ref="C22" r:id="rId6" display="https://www.pyimagesearch.com/2016/02/08/opencv-shape-detection/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1732,7 +1790,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1753,7 +1811,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="27.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="8.52"/>
@@ -1764,7 +1822,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1777,31 +1835,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,7 +2049,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="26.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="28.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="8.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="13.66"/>
@@ -2002,7 +2060,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2014,28 +2072,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2086,7 +2144,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="31.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="65.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="8.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="13.66"/>
@@ -2097,7 +2155,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C1" s="24"/>
     </row>
@@ -2106,10 +2164,10 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,6 +36,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -154,6 +155,12 @@
     <t xml:space="preserve">22.08.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">23.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCV courses</t>
+  </si>
+  <si>
     <t xml:space="preserve">TODO</t>
   </si>
   <si>
@@ -236,6 +243,12 @@
   </si>
   <si>
     <t xml:space="preserve">Playing around with the Shape detection algorithm: own shapes and changing the parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCV course on “color detection” → testing on sample image of sawyer robot → robot arm can be detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCV course on “object tracking” → testing on sample video of sawyer robot → robot arm can be detected</t>
   </si>
   <si>
     <t xml:space="preserve">Ordered</t>
@@ -853,10 +866,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1159,6 +1172,17 @@
       <c r="G15" s="15" t="n">
         <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>7.50000000000001</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="16" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1303,45 +1327,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1438,7 +1462,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1449,13 +1473,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1489,10 +1513,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H24"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1507,7 +1531,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1518,7 +1542,7 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1526,24 +1550,24 @@
     </row>
     <row r="4" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1552,32 +1576,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1586,7 +1610,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,27 +1629,38 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1780,7 +1815,7 @@
     <hyperlink ref="C13" r:id="rId3" display="tried to install CUDA Toolkit from https://developer.nvidia.com/cuda-downloads?target_os=Linux&amp;target_arch=x86_64&amp;target_distro=Ubuntu&amp;target_version=1710&amp;target_type=runfilelocal"/>
     <hyperlink ref="C16" r:id="rId4" display="Installed all requirements for zero-shot imitation learning as described here: https://github.com/pathak22/zeroshot-imitation"/>
     <hyperlink ref="C21" r:id="rId5" display="Tutorial on “Image Difference with OpenCV and Python” (https://www.pyimagesearch.com/2017/06/19/image-difference-with-opencv-and-python/)"/>
-    <hyperlink ref="C22" r:id="rId6" display="https://www.pyimagesearch.com/2016/02/08/opencv-shape-detection/"/>
+    <hyperlink ref="C22" r:id="rId6" display="Tutorial on “OpenCV shape detection” (https://www.pyimagesearch.com/2016/02/08/opencv-shape-detection/)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1822,7 +1857,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1835,31 +1870,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,7 +2095,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2072,28 +2107,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2155,7 +2190,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" s="24"/>
     </row>
@@ -2164,10 +2199,10 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -37,6 +37,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -158,7 +159,10 @@
     <t xml:space="preserve">23.08.2018</t>
   </si>
   <si>
-    <t xml:space="preserve">OpenCV courses</t>
+    <t xml:space="preserve">OpenCV courses, troubleshooting Linux problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.08.2018</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -249,6 +253,21 @@
   </si>
   <si>
     <t xml:space="preserve">OpenCV course on “object tracking” → testing on sample video of sawyer robot → robot arm can be detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems with Ubuntu on the PC → unmet dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.08.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubuntu problem could not be solved → contacted uni IT services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed to different pc and istalled everything there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moved stuff to the NTU github</t>
   </si>
   <si>
     <t xml:space="preserve">Ordered</t>
@@ -866,10 +885,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I16"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -946,7 +965,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>52.75</v>
+        <v>60.25</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -954,7 +973,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>17.75</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1181,13 +1200,40 @@
       <c r="C16" s="16" t="n">
         <v>0.40625</v>
       </c>
+      <c r="D16" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E16" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F16" s="16" t="n">
+        <v>0.760416666666667</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>7.5</v>
+      </c>
       <c r="H16" s="0" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="16" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="D17" s="16" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="E17" s="16" t="n">
+        <v>0.604166666666667</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G15" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G16" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1327,45 +1373,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1462,7 +1508,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1473,13 +1519,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1513,10 +1559,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H27"/>
+  <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1531,7 +1577,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1542,7 +1588,7 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1550,24 +1596,24 @@
     </row>
     <row r="4" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1576,32 +1622,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1610,7 +1656,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,22 +1675,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1653,19 +1699,38 @@
         <v>31</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1857,7 +1922,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1870,31 +1935,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2095,7 +2160,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2107,28 +2172,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2190,7 +2255,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C1" s="24"/>
     </row>
@@ -2199,10 +2264,10 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,6 +38,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -163,6 +164,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCV + Tensorflow tutorial on cat/dog problem</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -887,8 +891,8 @@
   </sheetPr>
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,7 +969,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>60.25</v>
+        <v>67</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -973,7 +977,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>25.25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1230,10 +1234,20 @@
       <c r="E17" s="16" t="n">
         <v>0.604166666666667</v>
       </c>
+      <c r="F17" s="16" t="n">
+        <v>0.729166666666667</v>
+      </c>
+      <c r="G17" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>6.74999999999999</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G16" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G17" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1373,45 +1387,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1508,7 +1522,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1519,13 +1533,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1561,8 +1575,8 @@
   </sheetPr>
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1577,7 +1591,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1588,7 +1602,7 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1596,24 +1610,24 @@
     </row>
     <row r="4" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1622,32 +1636,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1656,7 +1670,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,22 +1689,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1699,36 +1713,36 @@
         <v>31</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1922,7 +1936,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1935,31 +1949,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,7 +2174,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2172,28 +2186,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2255,7 +2269,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="24"/>
     </row>
@@ -2264,10 +2278,10 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,6 +39,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -169,6 +170,12 @@
     <t xml:space="preserve">OpenCV + Tensorflow tutorial on cat/dog problem</t>
   </si>
   <si>
+    <t xml:space="preserve">28.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.08.2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">TODO</t>
   </si>
   <si>
@@ -262,9 +269,6 @@
     <t xml:space="preserve">Problems with Ubuntu on the PC → unmet dependencies</t>
   </si>
   <si>
-    <t xml:space="preserve">24.08.2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ubuntu problem could not be solved → contacted uni IT services</t>
   </si>
   <si>
@@ -272,6 +276,24 @@
   </si>
   <si>
     <t xml:space="preserve">moved stuff to the NTU github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro solved the Linux Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team meeting with Sabrina and Quentin → This week will be focused on familiarizing with Quentins Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote message to Georgina → One-Shot learning is too much work; the available code for zero-shot learning is not usable for us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching for new papers on One-Shot Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An external camera would be useful instead of the sawyers head-camera → using the Kinect camera in the lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote email to Chelsea Finn (cbfinn@eecs.berkeley.edu) → asking about the source code to its paper “One-Shot Imitation from Observing Humans via Domain-Adaptive Meta-Learning”</t>
   </si>
   <si>
     <t xml:space="preserve">Ordered</t>
@@ -889,9 +911,9 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -969,7 +991,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>67</v>
+        <v>74.5</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -977,7 +999,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>32</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1245,9 +1267,42 @@
         <v>34</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="16" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="D18" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F18" s="16" t="n">
+        <v>0.739583333333333</v>
+      </c>
+      <c r="G18" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="16" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G17" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G19" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1387,45 +1442,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1522,7 +1577,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1533,13 +1588,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1573,10 +1628,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H32"/>
+  <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1591,7 +1646,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1602,7 +1657,7 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1610,24 +1665,24 @@
     </row>
     <row r="4" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1636,32 +1691,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1670,7 +1725,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,22 +1744,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1713,46 +1768,79 @@
         <v>31</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1895,6 +1983,7 @@
     <hyperlink ref="C16" r:id="rId4" display="Installed all requirements for zero-shot imitation learning as described here: https://github.com/pathak22/zeroshot-imitation"/>
     <hyperlink ref="C21" r:id="rId5" display="Tutorial on “Image Difference with OpenCV and Python” (https://www.pyimagesearch.com/2017/06/19/image-difference-with-opencv-and-python/)"/>
     <hyperlink ref="C22" r:id="rId6" display="Tutorial on “OpenCV shape detection” (https://www.pyimagesearch.com/2016/02/08/opencv-shape-detection/)"/>
+    <hyperlink ref="C39" r:id="rId7" display="cbfinn@eecs.berkeley.edu"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1904,7 +1993,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1936,7 +2025,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1949,31 +2038,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,7 +2263,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2186,28 +2275,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2269,7 +2358,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C1" s="24"/>
     </row>
@@ -2278,10 +2367,10 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -40,6 +40,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -294,6 +295,30 @@
   </si>
   <si>
     <t xml:space="preserve">Wrote email to Chelsea Finn (cbfinn@eecs.berkeley.edu) → asking about the source code to its paper “One-Shot Imitation from Observing Humans via Domain-Adaptive Meta-Learning”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got response from Chelsea Finn → The code can be found at their github https://github.com/tianheyu927/mil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed all requirements for the one-shot learning algorithm on the virtual machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is required to download MuJoCo, which is just available for free if you are student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MujoCo is a physics engine to simulate the environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also OpenAI Gym is needed, which is a toolkit for developing and comparing reinforcement learning algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The training data is &gt;25GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">made tutorial on object recognition using the VGG dataset https://machinelearningmastery.com/use-pre-trained-vgg-model-classify-objects-photographs/</t>
   </si>
   <si>
     <t xml:space="preserve">Ordered</t>
@@ -1628,10 +1653,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H40"/>
+  <dimension ref="B1:H48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1842,13 +1867,44 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1983,7 +2039,9 @@
     <hyperlink ref="C16" r:id="rId4" display="Installed all requirements for zero-shot imitation learning as described here: https://github.com/pathak22/zeroshot-imitation"/>
     <hyperlink ref="C21" r:id="rId5" display="Tutorial on “Image Difference with OpenCV and Python” (https://www.pyimagesearch.com/2017/06/19/image-difference-with-opencv-and-python/)"/>
     <hyperlink ref="C22" r:id="rId6" display="Tutorial on “OpenCV shape detection” (https://www.pyimagesearch.com/2016/02/08/opencv-shape-detection/)"/>
-    <hyperlink ref="C39" r:id="rId7" display="cbfinn@eecs.berkeley.edu"/>
+    <hyperlink ref="C39" r:id="rId7" display="Wrote email to Chelsea Finn (cbfinn@eecs.berkeley.edu) → asking about the source code to its paper “One-Shot Imitation from Observing Humans via Domain-Adaptive Meta-Learning”"/>
+    <hyperlink ref="C41" r:id="rId8" display="https://github.com/tianheyu927/mil"/>
+    <hyperlink ref="C47" r:id="rId9" display="https://machinelearningmastery.com/use-pre-trained-vgg-model-classify-objects-photographs/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1993,7 +2051,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2025,7 +2083,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2041,28 +2099,28 @@
         <v>40</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,7 +2321,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2275,28 +2333,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2358,7 +2416,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C1" s="24"/>
     </row>
@@ -2370,7 +2428,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Todo-List" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Project Plan" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Protocol" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Protocol" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Todo-List" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Project Plan" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Ordered" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="To Order" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="To Discuss" sheetId="7" state="visible" r:id="rId8"/>
@@ -41,9 +41,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Ordered!$B$3:$C$3</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -174,9 +175,129 @@
     <t xml:space="preserve">28.08.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">Research on new papers about one-shot learning</t>
+  </si>
+  <si>
     <t xml:space="preserve">29.08.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">30.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installing requirements for one-shot learning from human observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up Unix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial on ROS http://wiki.ros.org/ROS/Tutorials until 7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished draft of literature review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ros Tutorial until 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed all requirements for zero-shot imitation learning as described here: https://github.com/pathak22/zeroshot-imitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“make” fails → cublas_v2.h: No such file or directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tried to install CUDA Toolkit from https://developer.nvidia.com/cuda-downloads?target_os=Linux&amp;target_arch=x86_64&amp;target_distro=Ubuntu&amp;target_version=1710&amp;target_type=runfilelocal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disk space is too small → “Need 6836686400 bytes”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed OpenCV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial on “Image Difference with OpenCV and Python” (https://www.pyimagesearch.com/2017/06/19/image-difference-with-opencv-and-python/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial on “OpenCV shape detection” (https://www.pyimagesearch.com/2016/02/08/opencv-shape-detection/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playing around with the Shape detection algorithm: own shapes and changing the parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCV course on “color detection” → testing on sample image of sawyer robot → robot arm can be detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCV course on “object tracking” → testing on sample video of sawyer robot → robot arm can be detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems with Ubuntu on the PC → unmet dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubuntu problem could not be solved → contacted uni IT services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed to different pc and istalled everything there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moved stuff to the NTU github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro solved the Linux Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team meeting with Sabrina and Quentin → This week will be focused on familiarizing with Quentins Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote message to Georgina → One-Shot learning is too much work; the available code for zero-shot learning is not usable for us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching for new papers on One-Shot Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An external camera would be useful instead of the sawyers head-camera → using the Kinect camera in the lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote email to Chelsea Finn (cbfinn@eecs.berkeley.edu) → asking about the source code to its paper “One-Shot Imitation from Observing Humans via Domain-Adaptive Meta-Learning”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got response from Chelsea Finn → The code can be found at their github https://github.com/tianheyu927/mil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed all requirements for the one-shot learning algorithm on the virtual machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is required to download MuJoCo, which is just available for free if you are student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MujoCo is a physics engine to simulate the environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also OpenAI Gym is needed, which is a toolkit for developing and comparing reinforcement learning algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The training data is &gt;25GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">made tutorial on object recognition using the VGG dataset https://machinelearningmastery.com/use-pre-trained-vgg-model-classify-objects-photographs/</t>
+  </si>
+  <si>
     <t xml:space="preserve">TODO</t>
   </si>
   <si>
@@ -186,9 +307,6 @@
     <t xml:space="preserve">Done?</t>
   </si>
   <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROS Tutorial</t>
   </si>
   <si>
@@ -211,114 +329,6 @@
   </si>
   <si>
     <t xml:space="preserve">Steps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting up Unix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutorial on ROS http://wiki.ros.org/ROS/Tutorials until 7.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finished draft of literature review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ros Tutorial until 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installed all requirements for zero-shot imitation learning as described here: https://github.com/pathak22/zeroshot-imitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“make” fails → cublas_v2.h: No such file or directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tried to install CUDA Toolkit from https://developer.nvidia.com/cuda-downloads?target_os=Linux&amp;target_arch=x86_64&amp;target_distro=Ubuntu&amp;target_version=1710&amp;target_type=runfilelocal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk space is too small → “Need 6836686400 bytes”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installed OpenCV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutorial on “Image Difference with OpenCV and Python” (https://www.pyimagesearch.com/2017/06/19/image-difference-with-opencv-and-python/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutorial on “OpenCV shape detection” (https://www.pyimagesearch.com/2016/02/08/opencv-shape-detection/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playing around with the Shape detection algorithm: own shapes and changing the parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenCV course on “color detection” → testing on sample image of sawyer robot → robot arm can be detected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenCV course on “object tracking” → testing on sample video of sawyer robot → robot arm can be detected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problems with Ubuntu on the PC → unmet dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubuntu problem could not be solved → contacted uni IT services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">changed to different pc and istalled everything there</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moved stuff to the NTU github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro solved the Linux Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team meeting with Sabrina and Quentin → This week will be focused on familiarizing with Quentins Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrote message to Georgina → One-Shot learning is too much work; the available code for zero-shot learning is not usable for us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching for new papers on One-Shot Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An external camera would be useful instead of the sawyers head-camera → using the Kinect camera in the lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrote email to Chelsea Finn (cbfinn@eecs.berkeley.edu) → asking about the source code to its paper “One-Shot Imitation from Observing Humans via Domain-Adaptive Meta-Learning”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Got response from Chelsea Finn → The code can be found at their github https://github.com/tianheyu927/mil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installed all requirements for the one-shot learning algorithm on the virtual machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it is required to download MuJoCo, which is just available for free if you are student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujoCo is a physics engine to simulate the environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also OpenAI Gym is needed, which is a toolkit for developing and comparing reinforcement learning algorithms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The training data is &gt;25GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">made tutorial on object recognition using the VGG dataset https://machinelearningmastery.com/use-pre-trained-vgg-model-classify-objects-photographs/</t>
   </si>
   <si>
     <t xml:space="preserve">Ordered</t>
@@ -563,6 +573,26 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -583,31 +613,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -936,10 +946,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I19"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1016,7 +1026,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>74.5</v>
+        <v>88.0000000000001</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -1024,7 +1034,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>39.5</v>
+        <v>53.0000000000001</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1121,7 +1131,7 @@
       </c>
       <c r="G10" s="15" t="n">
         <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>6.00000000000001</v>
+        <v>6.00000000000003</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>21</v>
@@ -1145,7 +1155,7 @@
       </c>
       <c r="G11" s="15" t="n">
         <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>7.25000000000001</v>
+        <v>7.25000000000002</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>23</v>
@@ -1169,7 +1179,7 @@
       </c>
       <c r="G12" s="15" t="n">
         <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>6.25</v>
+        <v>6.25000000000001</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>25</v>
@@ -1241,7 +1251,7 @@
       </c>
       <c r="G15" s="15" t="n">
         <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>7.50000000000001</v>
+        <v>7.50000000000002</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,7 +1272,7 @@
       </c>
       <c r="G16" s="15" t="n">
         <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>7.5</v>
+        <v>7.50000000000003</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>32</v>
@@ -1286,7 +1296,7 @@
       </c>
       <c r="G17" s="15" t="n">
         <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>6.74999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>34</v>
@@ -1310,24 +1320,68 @@
       </c>
       <c r="G18" s="15" t="n">
         <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>7.5</v>
+        <v>7.49999999999998</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="16" t="n">
         <v>0.40625</v>
       </c>
+      <c r="D19" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E19" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F19" s="16" t="n">
+        <v>0.729166666666667</v>
+      </c>
       <c r="G19" s="15" t="n">
         <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="16" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="D20" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E20" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F20" s="16" t="n">
+        <v>0.729166666666667</v>
+      </c>
+      <c r="G20" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>6.75</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="16" t="n">
+        <v>0.385416666666667</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G19" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G20" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1449,409 +1503,205 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:D7"/>
+  <dimension ref="B1:H48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <conditionalFormatting sqref="C2:C14 C16 C18 C29:C1048576 C27 C20:C24">
-    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="0"/>
-    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="2"/>
-    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="4"/>
-    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="6"/>
-    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" priority="10" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="8"/>
-    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="10"/>
-    <cfRule type="containsText" priority="13" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="11"/>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:H3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="28.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="22" width="8.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:H1" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Title of this worksheet is in this cell.  Enter Employee and Manager details in cells below" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:H48"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="127"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="47.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="22" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="127"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="47.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="17" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+        <v>41</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="22" t="s">
-        <v>54</v>
+    <row r="4" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="23" t="s">
-        <v>56</v>
+      <c r="C10" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="23" t="s">
-        <v>57</v>
+      <c r="C11" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="23" t="s">
-        <v>58</v>
+      <c r="C12" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="23" t="s">
-        <v>59</v>
+      <c r="C13" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="23" t="s">
-        <v>60</v>
+      <c r="C14" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>57</v>
+      <c r="C16" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="23" t="s">
-        <v>61</v>
+      <c r="C20" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="23" t="s">
-        <v>62</v>
+      <c r="C21" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="23" t="s">
-        <v>63</v>
+      <c r="C22" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="23" t="s">
-        <v>64</v>
+      <c r="C23" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>65</v>
+      <c r="C25" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="23" t="s">
-        <v>66</v>
+      <c r="C26" s="18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="23" t="s">
-        <v>67</v>
+      <c r="C27" s="18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>68</v>
+      <c r="C29" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="23" t="s">
-        <v>69</v>
+      <c r="C30" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="23" t="s">
-        <v>70</v>
+      <c r="C31" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>71</v>
+      <c r="C33" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="23" t="s">
-        <v>72</v>
+      <c r="C34" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="23" t="s">
-        <v>73</v>
+      <c r="C35" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="23" t="s">
-        <v>74</v>
+      <c r="C36" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="23" t="s">
-        <v>75</v>
+      <c r="C37" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,50 +1709,50 @@
       <c r="C38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>76</v>
+      <c r="B39" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>78</v>
+      <c r="B41" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="23" t="s">
-        <v>79</v>
+      <c r="C42" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="23" t="s">
-        <v>80</v>
+      <c r="C43" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="23" t="s">
-        <v>81</v>
+      <c r="C44" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="23" t="s">
-        <v>82</v>
+      <c r="C45" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="23" t="s">
-        <v>83</v>
+      <c r="C46" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="23" t="s">
-        <v>84</v>
+      <c r="C47" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2040,8 +1890,8 @@
     <hyperlink ref="C21" r:id="rId5" display="Tutorial on “Image Difference with OpenCV and Python” (https://www.pyimagesearch.com/2017/06/19/image-difference-with-opencv-and-python/)"/>
     <hyperlink ref="C22" r:id="rId6" display="Tutorial on “OpenCV shape detection” (https://www.pyimagesearch.com/2016/02/08/opencv-shape-detection/)"/>
     <hyperlink ref="C39" r:id="rId7" display="Wrote email to Chelsea Finn (cbfinn@eecs.berkeley.edu) → asking about the source code to its paper “One-Shot Imitation from Observing Humans via Domain-Adaptive Meta-Learning”"/>
-    <hyperlink ref="C41" r:id="rId8" display="https://github.com/tianheyu927/mil"/>
-    <hyperlink ref="C47" r:id="rId9" display="https://machinelearningmastery.com/use-pre-trained-vgg-model-classify-objects-photographs/"/>
+    <hyperlink ref="C41" r:id="rId8" display="Got response from Chelsea Finn → The code can be found at their github https://github.com/tianheyu927/mil"/>
+    <hyperlink ref="C47" r:id="rId9" display="made tutorial on object recognition using the VGG dataset https://machinelearningmastery.com/use-pre-trained-vgg-model-classify-objects-photographs/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2053,6 +1903,210 @@
   <tableParts>
     <tablePart r:id="rId10"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:D7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C14 C16 C18 C29:C1048576 C27 C20:C24">
+    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="0"/>
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="2"/>
+    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="4"/>
+    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="6"/>
+    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="containsText" priority="10" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="8"/>
+    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="10"/>
+    <cfRule type="containsText" priority="13" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="11"/>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:H3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="19.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="17" width="8.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:H1" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Title of this worksheet is in this cell.  Enter Employee and Manager details in cells below" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2069,26 +2123,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="27.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="28.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="27.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="30" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="30" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="22" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="17" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="31"/>
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
@@ -2096,64 +2150,64 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="35"/>
       <c r="H4" s="36"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="H5" s="38"/>
       <c r="J5" s="30"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
       <c r="H6" s="38"/>
       <c r="J6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
       <c r="H7" s="38"/>
       <c r="J7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="H8" s="38"/>
       <c r="J8" s="30"/>
     </row>
@@ -2171,36 +2225,36 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="H10" s="38"/>
       <c r="J10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="H11" s="38"/>
       <c r="J11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="H12" s="38"/>
       <c r="J12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="H13" s="38"/>
       <c r="J13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="H14" s="38"/>
       <c r="J14" s="30"/>
     </row>
@@ -2249,7 +2303,7 @@
       <c r="J18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="22"/>
+      <c r="C19" s="17"/>
       <c r="F19" s="29"/>
       <c r="I19" s="42"/>
       <c r="J19" s="30"/>
@@ -2307,54 +2361,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="26.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="28.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="8.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="26.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="28.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="28.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="8.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="30" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="30" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="22" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="17" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+        <v>97</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="31"/>
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2402,33 +2456,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="65.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="28.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="8.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="31.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="65.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="28.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="8.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="30" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="30" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="22" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="17" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="23"/>
-    </row>
-    <row r="3" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,6 +42,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -190,6 +191,12 @@
     <t xml:space="preserve">31.08.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">03.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installing software for Kinect Camera</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protocol</t>
   </si>
   <si>
@@ -296,6 +303,12 @@
   </si>
   <si>
     <t xml:space="preserve">made tutorial on object recognition using the VGG dataset https://machinelearningmastery.com/use-pre-trained-vgg-model-classify-objects-photographs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tried to install software for the Kinect camera at the workstation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no USB 3.0 at the PC so the Kinect can not be used → setting everything up on a different computer</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -946,10 +959,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1026,7 +1039,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>88.0000000000001</v>
+        <v>103.25</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -1034,7 +1047,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>53.0000000000001</v>
+        <v>68.2500000000001</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1378,10 +1391,47 @@
       <c r="C21" s="16" t="n">
         <v>0.385416666666667</v>
       </c>
+      <c r="D21" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E21" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F21" s="16" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G21" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>6.74999999999999</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="16" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="D22" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E22" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F22" s="16" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="G22" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G20" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G22" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1503,10 +1553,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H48"/>
+  <dimension ref="B1:H51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1521,7 +1571,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1532,7 +1582,7 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1540,24 +1590,24 @@
     </row>
     <row r="4" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1566,32 +1616,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1600,7 +1650,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,22 +1669,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1643,17 +1693,17 @@
         <v>31</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1662,17 +1712,17 @@
         <v>33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1681,27 +1731,27 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,7 +1763,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1722,42 +1772,53 @@
         <v>38</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1929,45 +1990,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2064,7 +2125,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2075,13 +2136,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2137,7 +2198,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2150,31 +2211,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,7 +2436,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2387,28 +2448,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2470,7 +2531,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1" s="19"/>
     </row>
@@ -2479,10 +2540,10 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -43,6 +43,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -197,6 +198,12 @@
     <t xml:space="preserve">Installing software for Kinect Camera</t>
   </si>
   <si>
+    <t xml:space="preserve">04.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installing software for Kinect Camera, Documentation in the Wiki, Testing the camera</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protocol</t>
   </si>
   <si>
@@ -309,6 +316,15 @@
   </si>
   <si>
     <t xml:space="preserve">There is no USB 3.0 at the PC so the Kinect can not be used → setting everything up on a different computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed all requirements for the Kinect v2 Sensor and the python implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote installation instructions in the Wiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing → Color, IR and depth pictures</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -959,10 +975,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I22"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1429,9 +1445,30 @@
         <v>42</v>
       </c>
     </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="16" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D23" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E23" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="G23" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G22" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G23" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1553,10 +1590,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H51"/>
+  <dimension ref="B1:H55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1571,7 +1608,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1582,7 +1619,7 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1590,24 +1627,24 @@
     </row>
     <row r="4" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1616,32 +1653,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1650,7 +1687,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,22 +1706,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1693,17 +1730,17 @@
         <v>31</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1712,17 +1749,17 @@
         <v>33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1731,27 +1768,27 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,7 +1800,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1772,37 +1809,37 @@
         <v>38</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1811,18 +1848,33 @@
         <v>41</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1990,45 +2042,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2125,7 +2177,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2136,13 +2188,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2198,7 +2250,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2211,31 +2263,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,7 +2488,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2448,28 +2500,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2531,7 +2583,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C1" s="19"/>
     </row>
@@ -2540,10 +2592,10 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -44,6 +44,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -204,6 +206,9 @@
     <t xml:space="preserve">Installing software for Kinect Camera, Documentation in the Wiki, Testing the camera</t>
   </si>
   <si>
+    <t xml:space="preserve">05.09.2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protocol</t>
   </si>
   <si>
@@ -325,6 +330,9 @@
   </si>
   <si>
     <t xml:space="preserve">Testing → Color, IR and depth pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacted Chelsea Finn to ask for a sample demonstration file for the Sawyer robot</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -975,10 +983,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I23"/>
+  <dimension ref="B1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1055,7 +1063,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>103.25</v>
+        <v>118.75</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -1063,7 +1071,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>68.2500000000001</v>
+        <v>83.7500000000001</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1458,17 +1466,41 @@
       <c r="E23" s="16" t="n">
         <v>0.552083333333333</v>
       </c>
+      <c r="F23" s="16" t="n">
+        <v>0.770833333333333</v>
+      </c>
       <c r="G23" s="15" t="n">
         <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>8.00000000000003</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="16" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="D24" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E24" s="16" t="n">
+        <v>0.572916666666667</v>
+      </c>
+      <c r="F24" s="16" t="n">
+        <v>0.729166666666667</v>
+      </c>
+      <c r="G24" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>7.49999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G23" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G24" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1590,10 +1622,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H55"/>
+  <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1608,7 +1640,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1619,7 +1651,7 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1627,24 +1659,24 @@
     </row>
     <row r="4" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1653,32 +1685,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1687,7 +1719,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,22 +1738,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1730,17 +1762,17 @@
         <v>31</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1749,17 +1781,17 @@
         <v>33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1768,27 +1800,27 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,7 +1832,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1809,37 +1841,37 @@
         <v>38</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1848,12 +1880,12 @@
         <v>41</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1862,21 +1894,28 @@
         <v>43</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2042,45 +2081,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2177,7 +2216,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2188,13 +2227,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2250,7 +2289,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2263,31 +2302,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,7 +2527,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2500,28 +2539,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2583,7 +2622,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="19"/>
     </row>
@@ -2592,10 +2631,10 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,6 +46,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -209,6 +211,9 @@
     <t xml:space="preserve">05.09.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">10.09.2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protocol</t>
   </si>
   <si>
@@ -333,6 +338,9 @@
   </si>
   <si>
     <t xml:space="preserve">Contacted Chelsea Finn to ask for a sample demonstration file for the Sawyer robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed ROS Melodic on the second computer where the Kinect is running</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -983,10 +991,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I24"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1063,7 +1071,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>118.75</v>
+        <v>123.25</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -1071,7 +1079,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>83.7500000000001</v>
+        <v>88.2500000000001</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1498,9 +1506,30 @@
         <v>7.49999999999999</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E25" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F25" s="16" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G25" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G24" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G25" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1622,10 +1651,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1640,7 +1669,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1651,7 +1680,7 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1659,24 +1688,24 @@
     </row>
     <row r="4" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1685,32 +1714,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1719,7 +1748,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,22 +1767,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1762,17 +1791,17 @@
         <v>31</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1781,17 +1810,17 @@
         <v>33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1800,27 +1829,27 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,7 +1861,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1841,37 +1870,37 @@
         <v>38</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1880,12 +1909,12 @@
         <v>41</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1894,17 +1923,17 @@
         <v>43</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1913,11 +1942,18 @@
         <v>45</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2081,45 +2117,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2216,7 +2252,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2227,13 +2263,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2289,7 +2325,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2302,31 +2338,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,7 +2563,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2539,28 +2575,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2622,7 +2658,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" s="19"/>
     </row>
@@ -2631,10 +2667,10 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -48,6 +48,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -214,6 +216,15 @@
     <t xml:space="preserve">10.09.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">11.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.09.20118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.09.2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protocol</t>
   </si>
   <si>
@@ -341,6 +352,52 @@
   </si>
   <si>
     <t xml:space="preserve">Installed ROS Melodic on the second computer where the Kinect is running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replaced the main computer that controls the robot to a different one with USB 3.0 and Ubuntu 18.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial on “Training YOLOv3 to detect custom objects” (https://medium.com/@manivannan_data/how-to-train-yolov3-to-detect-custom-objects-ccbcafeb13d2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented YOLO to detect live objects from the kinect camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started training on custom objects → about 18h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloned ROLO repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "./experiments/testing/ROLO_network_test_all.py", line 31
+    from tensorflow.python.ops.rnn_cell
+                                      ^
+SyntaxError: invalid syntax
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--&gt; change the line "from tensorflow.models.rnn import rnn, rnn_cell" to "from tensorflow.python.ops.rnn_cell import BasicLSTMCell"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traceback (most recent call last):
+  File "./experiments/testing/ROLO_network_test_all.py", line 27, in &lt;module&gt;
+    import ROLO_utils as utils
+ImportError: No module named ROLO_utils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--&gt; copy the file utils/ROLO_utils.py to experiments/testing/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial on “Train a Classifier on CIFAR-10” (https://pjreddie.com/darknet/train-cifar/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">found function on how to move the robot in x y z positions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table is too low → maybe use a higher table?</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -906,8 +963,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table25" displayName="Table25" ref="B3:C162" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B3:C162"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table25" displayName="Table25" ref="B3:C163" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="B3:C163"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Notes"/>
@@ -991,10 +1048,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1071,7 +1128,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>123.25</v>
+        <v>148</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -1079,7 +1136,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>88.2500000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1527,9 +1584,72 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="16" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="D26" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E26" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F26" s="16" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G26" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="16" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D27" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E27" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F27" s="16" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="16" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D28" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E28" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F28" s="16" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G25" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1651,10 +1771,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:H75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1669,7 +1789,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1680,7 +1800,7 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1688,24 +1808,24 @@
     </row>
     <row r="4" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1714,32 +1834,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1748,7 +1868,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,22 +1887,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1791,17 +1911,17 @@
         <v>31</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1810,17 +1930,17 @@
         <v>33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1829,27 +1949,27 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,7 +1981,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1870,37 +1990,37 @@
         <v>38</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1909,12 +2029,12 @@
         <v>41</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1923,17 +2043,17 @@
         <v>43</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1942,7 +2062,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1951,25 +2071,82 @@
         <v>46</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2059,6 +2236,7 @@
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:H1" type="none">
@@ -2080,6 +2258,7 @@
     <hyperlink ref="C39" r:id="rId7" display="Wrote email to Chelsea Finn (cbfinn@eecs.berkeley.edu) → asking about the source code to its paper “One-Shot Imitation from Observing Humans via Domain-Adaptive Meta-Learning”"/>
     <hyperlink ref="C41" r:id="rId8" display="Got response from Chelsea Finn → The code can be found at their github https://github.com/tianheyu927/mil"/>
     <hyperlink ref="C47" r:id="rId9" display="made tutorial on object recognition using the VGG dataset https://machinelearningmastery.com/use-pre-trained-vgg-model-classify-objects-photographs/"/>
+    <hyperlink ref="C62" r:id="rId10" display="https://medium.com/@manivannan_data/how-to-train-yolov3-to-detect-custom-objects-ccbcafeb13d2"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2089,7 +2268,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2117,45 +2296,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2252,7 +2431,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2263,13 +2442,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2325,7 +2504,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2338,31 +2517,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,7 +2742,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2575,28 +2754,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2658,7 +2837,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C1" s="19"/>
     </row>
@@ -2667,10 +2846,10 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -50,6 +50,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="134">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -223,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">13.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.09.2018</t>
   </si>
   <si>
     <t xml:space="preserve">Protocol</t>
@@ -398,6 +402,18 @@
   </si>
   <si>
     <t xml:space="preserve">table is too low → maybe use a higher table?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed table to the one that is height-adjustable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taped the region that is reachable by the robot arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recorded joint positions of the outer edges of the table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--&gt; need to convert the coordinates of an object from the Kinect to the robot positions</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -1048,10 +1064,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I28"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1128,7 +1144,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>148</v>
+        <v>156.25</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -1136,7 +1152,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>113</v>
+        <v>121.25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1647,9 +1663,30 @@
         <v>8</v>
       </c>
     </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="16" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="D29" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E29" s="16" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F29" s="16" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>8.25</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G28" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G29" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1771,10 +1808,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H75"/>
+  <dimension ref="B1:H80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
+      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1789,7 +1826,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1800,7 +1837,7 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1808,24 +1845,24 @@
     </row>
     <row r="4" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1834,32 +1871,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1868,7 +1905,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,22 +1924,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1911,17 +1948,17 @@
         <v>31</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1930,17 +1967,17 @@
         <v>33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1949,27 +1986,27 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,7 +2018,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1990,37 +2027,37 @@
         <v>38</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2029,12 +2066,12 @@
         <v>41</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2043,17 +2080,17 @@
         <v>43</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2062,7 +2099,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2071,7 +2108,7 @@
         <v>46</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2080,26 +2117,26 @@
         <v>47</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2108,50 +2145,69 @@
         <v>49</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2258,7 +2314,7 @@
     <hyperlink ref="C39" r:id="rId7" display="Wrote email to Chelsea Finn (cbfinn@eecs.berkeley.edu) → asking about the source code to its paper “One-Shot Imitation from Observing Humans via Domain-Adaptive Meta-Learning”"/>
     <hyperlink ref="C41" r:id="rId8" display="Got response from Chelsea Finn → The code can be found at their github https://github.com/tianheyu927/mil"/>
     <hyperlink ref="C47" r:id="rId9" display="made tutorial on object recognition using the VGG dataset https://machinelearningmastery.com/use-pre-trained-vgg-model-classify-objects-photographs/"/>
-    <hyperlink ref="C62" r:id="rId10" display="https://medium.com/@manivannan_data/how-to-train-yolov3-to-detect-custom-objects-ccbcafeb13d2"/>
+    <hyperlink ref="C62" r:id="rId10" display="Tutorial on “Training YOLOv3 to detect custom objects” (https://medium.com/@manivannan_data/how-to-train-yolov3-to-detect-custom-objects-ccbcafeb13d2)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2296,45 +2352,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2431,7 +2487,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2442,13 +2498,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2504,7 +2560,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2517,31 +2573,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,7 +2798,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2754,28 +2810,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2837,7 +2893,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C1" s="19"/>
     </row>
@@ -2846,10 +2902,10 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -51,6 +51,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="136">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -227,6 +229,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.09.2018</t>
   </si>
   <si>
     <t xml:space="preserve">Protocol</t>
@@ -414,6 +419,9 @@
   </si>
   <si>
     <t xml:space="preserve">--&gt; need to convert the coordinates of an object from the Kinect to the robot positions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searched for ways how to publish images via a ROS message</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -1064,10 +1072,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I29"/>
+  <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1144,7 +1152,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>156.25</v>
+        <v>163.5</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -1152,7 +1160,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>121.25</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1684,9 +1692,30 @@
         <v>8.25</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="16" t="n">
+        <v>0.364583333333333</v>
+      </c>
+      <c r="D30" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E30" s="16" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="F30" s="16" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>7.25000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G29" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G30" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1808,10 +1837,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H80"/>
+  <dimension ref="B1:H82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C82" activeCellId="0" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1826,7 +1855,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1837,7 +1866,7 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1845,24 +1874,24 @@
     </row>
     <row r="4" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1871,32 +1900,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1905,7 +1934,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,22 +1953,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1948,17 +1977,17 @@
         <v>31</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1967,17 +1996,17 @@
         <v>33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1986,27 +2015,27 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,7 +2047,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2027,37 +2056,37 @@
         <v>38</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2066,12 +2095,12 @@
         <v>41</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2080,17 +2109,17 @@
         <v>43</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2099,7 +2128,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2108,7 +2137,7 @@
         <v>46</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2117,26 +2146,26 @@
         <v>47</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2145,43 +2174,43 @@
         <v>49</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2190,26 +2219,33 @@
         <v>50</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2352,45 +2388,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2487,7 +2523,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2498,13 +2534,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2560,7 +2596,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2573,31 +2609,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,7 +2834,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2810,28 +2846,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2893,7 +2929,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C1" s="19"/>
     </row>
@@ -2902,10 +2938,10 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -53,6 +53,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
@@ -74,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="168">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -232,6 +237,18 @@
   </si>
   <si>
     <t xml:space="preserve">17.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.09.2018</t>
   </si>
   <si>
     <t xml:space="preserve">Protocol</t>
@@ -422,6 +439,119 @@
   </si>
   <si>
     <t xml:space="preserve">Searched for ways how to publish images via a ROS message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Took 150 pictures of the robot hand → 50 with the on-head kinect (256x144), 50 with the front-kinect (256x144) and 50 with the smartphone (320x240)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training is not converging after 17h→ Avg IOU around 0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did create files hand-yolov3_100.weights to hand-yolov3_30000.weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network settings (hand-yolov3.cfg):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[net]
+# Testing
+# batch=1
+# subdivisions=1
+# Training
+batch=10
+subdivisions=8
+width=608
+height=608
+channels=3
+momentum=0.9
+decay=0.0005
+angle=0
+saturation = 1.5
+exposure = 1.5
+hue=.1
+learning_rate=0.001
+burn_in=1000
+max_batches = 500200
+policy=steps
+steps=400000,450000
+scales=.1,.1
+[convolutional]
+batch_normalize=1
+filters=32
+size=3
+stride=1
+pad=1
+activation=leaky
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing the weights → Problem with OpenCV version (https://github.com/pjreddie/darknet/issues/518)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">installed older OpenCV version like here (https://github.com/madhawav/YOLO3-4-Py/blob/master/tools/install_opencv34.sh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was not a good idea → did the installation of OpenCV 3.4.3 again (https://www.pyimagesearch.com/2018/05/28/ubuntu-18-04-how-to-install-opencv/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back on newest OpenCV version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Followed this (https://www.learnopencv.com/install-opencv3-on-ubuntu/) tutorial to install OpenCV 3.4.0 → pay attention to git checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same error → ImportError: /usr/local/lib/python2.7/dist-packages/cv2.so: undefined symbol: _ZTIN2cv3dnn19experimental_dnn_v35LayerE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upgraded back to 3.4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removed opencv with sudo make uninstall and then removed the folders with rm -rf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also removed the cv.so files in dist-packages and site-packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added export PKG_CONFIG_PATH=$PKG_CONFIG_PATH:/usr/lib/pkgconfig to bashrc → same error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adapted opencv_yolo code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">network is detecting objects but the trained weights did not work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro proposed I should have a look at the weights files to see if there was a problem saving the weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight files can not be opened easily → they are binary files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is discussed on https://groups.google.com/forum/#!topic/darknet/ZiNcHN37NTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">found the program on https://twitter.com/genekogan/status/852111806218752000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tried to clone the repository and run the visualization but it did not work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">started training with new dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bounding boxes where not working with the OpenCV Yolo code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--&gt; fixed it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCV code is now fully working with the COCO dataset on the pretrained yolo weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training stopped at iteration 15730 with the CUDA Error: out of memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the newly trained weights (used the one with 10000 iterations) for detecting the sawyer hand is not detecting anything</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -498,10 +628,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="D\-MMM\-YY;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;\-#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="D\-MMM\-YY;@"/>
     <numFmt numFmtId="168" formatCode="DD\.MM\.YY"/>
     <numFmt numFmtId="169" formatCode="H:MM:SS;@"/>
     <numFmt numFmtId="170" formatCode="HH:MM:SS"/>
@@ -603,7 +733,7 @@
     </border>
   </borders>
   <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -626,24 +756,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -651,31 +777,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -683,6 +809,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -691,7 +821,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -699,7 +829,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,11 +853,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -743,7 +873,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -775,7 +905,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,7 +913,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -795,7 +925,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -803,7 +933,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -811,11 +941,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -837,90 +967,70 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="5">
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF273645"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC93737"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF273645"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FF58CC7C"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC93737"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF58CC7C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC93737"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF58CC7C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC93737"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF58CC7C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC93737"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF58CC7C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC93737"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF58CC7C"/>
-        </patternFill>
-      </fill>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
     </dxf>
   </dxfs>
   <colors>
@@ -966,7 +1076,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF58CC7C"/>
+      <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -978,7 +1088,7 @@
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FFC93737"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF273645"/>
     </indexedColors>
@@ -1072,10 +1182,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I30"/>
+  <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1152,7 +1262,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>163.5</v>
+        <v>189.5</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -1160,7 +1270,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>128.5</v>
+        <v>154.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1713,9 +1823,83 @@
         <v>7.25000000000001</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="16" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D31" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E31" s="16" t="n">
+        <v>0.572916666666667</v>
+      </c>
+      <c r="F31" s="16" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="16" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="D32" s="16" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E32" s="16" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="F32" s="16" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G32" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>8.74999999999999</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="16" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="D33" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E33" s="16" t="n">
+        <v>0.572916666666667</v>
+      </c>
+      <c r="F33" s="16" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="G33" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="16" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D34" s="16" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G33" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1837,10 +2021,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H82"/>
+  <dimension ref="B1:H115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C82" activeCellId="0" sqref="C82"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C115" activeCellId="0" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1855,7 +2039,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1866,7 +2050,7 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -1874,24 +2058,24 @@
     </row>
     <row r="4" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1900,32 +2084,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1934,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,22 +2137,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1977,17 +2161,17 @@
         <v>31</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1996,17 +2180,17 @@
         <v>33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2015,27 +2199,27 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,7 +2231,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2056,37 +2240,37 @@
         <v>38</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2095,12 +2279,12 @@
         <v>41</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2109,17 +2293,17 @@
         <v>43</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="18" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2128,7 +2312,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2137,7 +2321,7 @@
         <v>46</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2146,26 +2330,26 @@
         <v>47</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2174,43 +2358,43 @@
         <v>49</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2219,22 +2403,22 @@
         <v>50</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2243,42 +2427,166 @@
         <v>51</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C88" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2351,6 +2659,12 @@
     <hyperlink ref="C41" r:id="rId8" display="Got response from Chelsea Finn → The code can be found at their github https://github.com/tianheyu927/mil"/>
     <hyperlink ref="C47" r:id="rId9" display="made tutorial on object recognition using the VGG dataset https://machinelearningmastery.com/use-pre-trained-vgg-model-classify-objects-photographs/"/>
     <hyperlink ref="C62" r:id="rId10" display="Tutorial on “Training YOLOv3 to detect custom objects” (https://medium.com/@manivannan_data/how-to-train-yolov3-to-detect-custom-objects-ccbcafeb13d2)"/>
+    <hyperlink ref="C89" r:id="rId11" display="Testing the weights → Problem with OpenCV version (https://github.com/pjreddie/darknet/issues/518)"/>
+    <hyperlink ref="C90" r:id="rId12" display="installed older OpenCV version like here (https://github.com/madhawav/YOLO3-4-Py/blob/master/tools/install_opencv34.sh)"/>
+    <hyperlink ref="C91" r:id="rId13" display="This was not a good idea → did the installation of OpenCV 3.4.3 again (https://www.pyimagesearch.com/2018/05/28/ubuntu-18-04-how-to-install-opencv/)"/>
+    <hyperlink ref="C94" r:id="rId14" display="Followed this (https://www.learnopencv.com/install-opencv3-on-ubuntu/) tutorial to install OpenCV 3.4.0 → pay attention to git checkout"/>
+    <hyperlink ref="C105" r:id="rId15" location="!topic/darknet/ZiNcHN37NTY" display="this is discussed on https://groups.google.com/forum/#!topic/darknet/ZiNcHN37NTY"/>
+    <hyperlink ref="C106" r:id="rId16" display="found the program on https://twitter.com/genekogan/status/852111806218752000"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2360,7 +2674,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2388,45 +2702,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2464,27 +2778,27 @@
   </sheetData>
   <conditionalFormatting sqref="C2:C14 C16 C18 C29:C1048576 C27 C20:C24">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="0"/>
-    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="1"/>
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="2"/>
-    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="3"/>
+    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="0"/>
+    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="4"/>
-    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="5"/>
+    <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="0"/>
+    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="6"/>
-    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="7"/>
+    <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="1"/>
+    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" priority="10" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="8"/>
-    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="9"/>
+    <cfRule type="containsText" priority="10" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="2"/>
+    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="10"/>
-    <cfRule type="containsText" priority="13" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="11"/>
+    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="3"/>
+    <cfRule type="containsText" priority="13" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="yes" dxfId="4"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2523,7 +2837,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2534,13 +2848,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2596,7 +2910,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2609,31 +2923,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,7 +3148,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2846,28 +3160,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2929,7 +3243,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C1" s="19"/>
     </row>
@@ -2938,10 +3252,10 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -58,6 +58,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="171">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -249,6 +250,9 @@
   </si>
   <si>
     <t xml:space="preserve">21.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.09.2018</t>
   </si>
   <si>
     <t xml:space="preserve">Protocol</t>
@@ -552,6 +556,12 @@
   </si>
   <si>
     <t xml:space="preserve">the newly trained weights (used the one with 10000 iterations) for detecting the sawyer hand is not detecting anything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coco dataset has got 82783 images for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleted 46 images from the 500 images where there was no hand on it</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -967,22 +977,27 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Calibri"/>
         <charset val="1"/>
         <family val="2"/>
-        <color rgb="FF000000"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF273645"/>
+        <u val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1000,9 +1015,10 @@
       <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1020,17 +1036,31 @@
       <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
         <charset val="1"/>
         <family val="2"/>
-        <color rgb="FF000000"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF273645"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1182,10 +1212,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I34"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1895,6 +1925,14 @@
       </c>
       <c r="D34" s="16" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="16" t="n">
+        <v>0.395833333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2021,10 +2059,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H115"/>
+  <dimension ref="B1:H118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C115" activeCellId="0" sqref="C115"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C118" activeCellId="0" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2039,7 +2077,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2050,7 +2088,7 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -2058,24 +2096,24 @@
     </row>
     <row r="4" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2084,32 +2122,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2118,7 +2156,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,22 +2175,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2161,17 +2199,17 @@
         <v>31</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2180,17 +2218,17 @@
         <v>33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2199,27 +2237,27 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,7 +2269,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2240,37 +2278,37 @@
         <v>38</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2279,12 +2317,12 @@
         <v>41</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2293,17 +2331,17 @@
         <v>43</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2312,7 +2350,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2321,7 +2359,7 @@
         <v>46</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2330,26 +2368,26 @@
         <v>47</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2358,43 +2396,43 @@
         <v>49</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2403,22 +2441,22 @@
         <v>50</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2427,7 +2465,7 @@
         <v>51</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2436,7 +2474,7 @@
         <v>52</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2445,73 +2483,73 @@
         <v>53</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C88" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2520,42 +2558,42 @@
         <v>54</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2564,32 +2602,43 @@
         <v>55</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2702,45 +2751,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2837,7 +2886,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2848,13 +2897,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2910,7 +2959,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2923,31 +2972,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,7 +3197,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3160,28 +3209,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3243,7 +3292,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C1" s="19"/>
     </row>
@@ -3252,10 +3301,10 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -59,6 +59,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="179">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -253,6 +254,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.09.2018</t>
   </si>
   <si>
     <t xml:space="preserve">Protocol</t>
@@ -562,6 +566,30 @@
   </si>
   <si>
     <t xml:space="preserve">Deleted 46 images from the 500 images where there was no hand on it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did annotation again for the residual images and and tried training again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error: darknet: ./src/utils.c:256: error: Assertion `0' failed.
+Aborted (core dumped)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when lowering the batch size or changing the width and height of the network input there is a different error: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resizing
+544
+Floating point exception (core dumped)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solved floating point exeption → https://groups.google.com/forum/#!topic/darknet/FUDYIrbIz0I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train and test files where empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--names cfg/hand_take2/hand2-obj.names --config cfg/hand_take2/hand2-yolov3.cfg --weights cfg/hand_take2/hand2-yolov3_10000.weights --cam_idx=1</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -977,7 +1005,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1060,6 +1088,15 @@
           <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
@@ -1212,10 +1249,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I35"/>
+  <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1292,7 +1329,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>189.5</v>
+        <v>215</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -1300,7 +1337,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>154.5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1926,6 +1963,16 @@
       <c r="D34" s="16" t="n">
         <v>0.5</v>
       </c>
+      <c r="E34" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F34" s="16" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="G34" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>8.00000000000001</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
@@ -1934,10 +1981,44 @@
       <c r="C35" s="16" t="n">
         <v>0.395833333333333</v>
       </c>
+      <c r="D35" s="16" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="E35" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F35" s="16" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="G35" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>7.50000000000001</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="16" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="D36" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E36" s="16" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="F36" s="16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G36" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G33" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G36" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2059,10 +2140,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H118"/>
+  <dimension ref="B1:H126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C118" activeCellId="0" sqref="C118"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C126" activeCellId="0" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2077,7 +2158,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2088,7 +2169,7 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -2096,24 +2177,24 @@
     </row>
     <row r="4" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2122,32 +2203,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2156,7 +2237,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,22 +2256,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2199,17 +2280,17 @@
         <v>31</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2218,17 +2299,17 @@
         <v>33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2237,27 +2318,27 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,7 +2350,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2278,37 +2359,37 @@
         <v>38</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2317,12 +2398,12 @@
         <v>41</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2331,17 +2412,17 @@
         <v>43</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2350,7 +2431,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2359,7 +2440,7 @@
         <v>46</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2368,26 +2449,26 @@
         <v>47</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2396,43 +2477,43 @@
         <v>49</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2441,22 +2522,22 @@
         <v>50</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2465,7 +2546,7 @@
         <v>51</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2474,7 +2555,7 @@
         <v>52</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2483,73 +2564,73 @@
         <v>53</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C88" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2558,42 +2639,42 @@
         <v>54</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2602,27 +2683,27 @@
         <v>55</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2631,22 +2712,53 @@
         <v>56</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2714,6 +2826,7 @@
     <hyperlink ref="C94" r:id="rId14" display="Followed this (https://www.learnopencv.com/install-opencv3-on-ubuntu/) tutorial to install OpenCV 3.4.0 → pay attention to git checkout"/>
     <hyperlink ref="C105" r:id="rId15" location="!topic/darknet/ZiNcHN37NTY" display="this is discussed on https://groups.google.com/forum/#!topic/darknet/ZiNcHN37NTY"/>
     <hyperlink ref="C106" r:id="rId16" display="found the program on https://twitter.com/genekogan/status/852111806218752000"/>
+    <hyperlink ref="C123" r:id="rId17" location="!topic/darknet/FUDYIrbIz0I" display="https://groups.google.com/forum/#!topic/darknet/FUDYIrbIz0I"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2723,7 +2836,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2751,45 +2864,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2886,7 +2999,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2897,13 +3010,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2959,7 +3072,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2972,31 +3085,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,7 +3310,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3209,28 +3322,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3292,7 +3405,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C1" s="19"/>
     </row>
@@ -3301,10 +3414,10 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/documentation/Protocol_Timesheet_Todo.xlsx
+++ b/documentation/Protocol_Timesheet_Todo.xlsx
@@ -60,6 +60,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Time Sheet'!$7:$7</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ColumnTitle1" vbProcedure="false">TimeSheet[[#Headers],[Date(s)]]</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Protocol!$B$3:$C$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Project Plan'!$B$3:$D$3</definedName>
@@ -81,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="193">
   <si>
     <t xml:space="preserve">Time Sheet</t>
   </si>
@@ -257,6 +260,15 @@
   </si>
   <si>
     <t xml:space="preserve">25.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.09.2018</t>
   </si>
   <si>
     <t xml:space="preserve">Protocol</t>
@@ -590,6 +602,42 @@
   </si>
   <si>
     <t xml:space="preserve">--names cfg/hand_take2/hand2-obj.names --config cfg/hand_take2/hand2-yolov3.cfg --weights cfg/hand_take2/hand2-yolov3_10000.weights --cam_idx=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">started training again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added stuff to the wiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepared the presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot was turned off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could not enable robot. Error message:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ERROR] [1538041001.648020]: Failed to reset robot.
+Please verify that the ROS_IP or ROS_HOSTNAME environment variables are set
+and resolvable. For more information please visit:
+http://sdk.rethinkrobotics.com/intera/SDK_Shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP adresses have been changed → fixed it in the intera script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found out that the annotations of the images have been false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed the error and trained again → it is detecting the hand now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Took 500 images for the bottle and annotated them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">started training on two classes → hand and bottle</t>
   </si>
   <si>
     <t xml:space="preserve">TODO</t>
@@ -1022,10 +1070,9 @@
       <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1043,10 +1090,9 @@
       <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1064,10 +1110,9 @@
       <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1085,10 +1130,9 @@
       <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1097,7 +1141,6 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1249,10 +1292,10 @@
     <tabColor rgb="FF273645"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:I36"/>
+  <dimension ref="B1:I39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
+      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1329,7 +1372,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>215</v>
+        <v>229.75</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -1337,7 +1380,7 @@
       </c>
       <c r="E6" s="10" t="n">
         <f aca="false">IFERROR(C6-D6, "")</f>
-        <v>180</v>
+        <v>194.75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2016,9 +2059,65 @@
         <v>10</v>
       </c>
     </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="16" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D37" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E37" s="16" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F37" s="16" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="G37" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="16" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D38" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F38" s="16" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G38" s="15" t="n">
+        <f aca="false">IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="16" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D39" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="16" t="n">
+        <v>0.541666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G36" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:AMJ1 A2:A9 F2:AMJ2 D3:AMJ4 F5:AMJ6 H7:AMJ7 B8:AMJ9 G10:G38" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2140,10 +2239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H126"/>
+  <dimension ref="B1:H139"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C126" activeCellId="0" sqref="C126"/>
+      <selection pane="topLeft" activeCell="C139" activeCellId="0" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2158,7 +2257,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2169,7 +2268,7 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -2177,24 +2276,24 @@
     </row>
     <row r="4" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2203,32 +2302,32 @@
         <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2237,7 +2336,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,22 +2355,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2280,17 +2379,17 @@
         <v>31</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2299,17 +2398,17 @@
         <v>33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2318,27 +2417,27 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +2449,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2359,37 +2458,37 @@
         <v>38</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2398,12 +2497,12 @@
         <v>41</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2412,17 +2511,17 @@
         <v>43</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2431,7 +2530,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2440,7 +2539,7 @@
         <v>46</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2449,26 +2548,26 @@
         <v>47</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2477,43 +2576,43 @@
         <v>49</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2522,22 +2621,22 @@
         <v>50</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2546,7 +2645,7 @@
         <v>51</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2555,7 +2654,7 @@
         <v>52</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2564,73 +2663,73 @@
         <v>53</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C88" s="20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="18" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="18" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2639,42 +2738,42 @@
         <v>54</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2683,27 +2782,27 @@
         <v>55</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2712,32 +2811,32 @@
         <v>56</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2746,32 +2845,82 @@
         <v>57</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C125" s="18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2826,7 +2975,8 @@
     <hyperlink ref="C94" r:id="rId14" display="Followed this (https://www.learnopencv.com/install-opencv3-on-ubuntu/) tutorial to install OpenCV 3.4.0 → pay attention to git checkout"/>
     <hyperlink ref="C105" r:id="rId15" location="!topic/darknet/ZiNcHN37NTY" display="this is discussed on https://groups.google.com/forum/#!topic/darknet/ZiNcHN37NTY"/>
     <hyperlink ref="C106" r:id="rId16" display="found the program on https://twitter.com/genekogan/status/852111806218752000"/>
-    <hyperlink ref="C123" r:id="rId17" location="!topic/darknet/FUDYIrbIz0I" display="https://groups.google.com/forum/#!topic/darknet/FUDYIrbIz0I"/>
+    <hyperlink ref="C123" r:id="rId17" location="!topic/darknet/FUDYIrbIz0I" display="Solved floating point exeption → https://groups.google.com/forum/#!topic/darknet/FUDYIrbIz0I"/>
+    <hyperlink ref="C133" r:id="rId18" display="[ERROR] [1538041001.648020]: Failed to reset robot.&#10;Please verify that the ROS_IP or ROS_HOSTNAME environment variables are set&#10;and resolvable. For more information please visit:&#10;http://sdk.rethinkrobotics.com/intera/SDK_Shell"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2836,7 +2986,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2864,45 +3014,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2999,7 +3149,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3010,13 +3160,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3072,7 +3222,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3085,31 +3235,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +3460,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3322,28 +3472,28 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3405,7 +3555,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C1" s="19"/>
     </row>
@@ -3414,10 +3564,10 @@
     </row>
     <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
